--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Futura02\Survey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1783DE98-9025-4054-821C-6E2287B57ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -124,9 +130,6 @@
     <t>IT Manager</t>
   </si>
   <si>
-    <t>Siamo un’azienda relativamente digitale; alcuni processi aziendali sono stati digitalizzati con l’introduzione di tecnologie digitali</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>Direttore Generale</t>
   </si>
   <si>
-    <t>Siamo un’azienda totalmente Digital Oriented; tutti i nostri processi sono supportati dall’utilizzo di tecnologie digitali</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1076,14 +1076,20 @@
   </si>
   <si>
     <t>azeinda75</t>
+  </si>
+  <si>
+    <t>Siamo una azienda relativamente digitale; alcuni processi aziendali sono stati digitalizzati con l'introduzione di tecnologie digitali</t>
+  </si>
+  <si>
+    <t>Siamo una azienda totalmente Digital Oriented; tutti i nostri processi sono supportati dall'utilizzo di tecnologie digitali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1143,43 +1149,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,10 +1195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1231,71 +1236,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1323,7 +1328,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1346,11 +1351,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1359,13 +1364,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1375,7 +1380,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1384,7 +1389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1393,7 +1398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1401,10 +1406,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1469,53 +1474,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AH75"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="59.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="112.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="36.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="68.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="69.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="63.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="52.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="26" max="26" style="7" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="89.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="143.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="69.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="63.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="52.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="7" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="53.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="89.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1630,420 +1628,420 @@
         <v>25569.042152777776</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="X2" s="6">
         <v>3</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="AF2" s="6">
         <v>3</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH2" s="6">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="5">
         <v>25569.042094907407</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X3" s="6">
         <v>4</v>
       </c>
       <c r="Y3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="AF3" s="6">
         <v>4</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="6">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="5">
         <v>25569.042175925926</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="X4" s="6">
         <v>3</v>
       </c>
       <c r="Y4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="AF4" s="6">
         <v>2</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5">
+        <v>25569.042187499999</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="5">
-        <v>25569.0421875</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X5" s="6">
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AF5" s="6">
         <v>3</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5">
         <v>25569.042152777776</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2052,74 +2050,74 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W6" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X6" s="6">
         <v>4</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="AF6" s="6">
         <v>3</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH6" s="6">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5">
         <v>25569.042152777776</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2128,278 +2126,278 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X7" s="6">
         <v>5</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="AF7" s="6">
         <v>5</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AH7" s="6">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5">
         <v>25569.042152777776</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X8" s="6">
         <v>4</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="AF8" s="6">
         <v>3</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH8" s="6">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5">
         <v>25569.042118055557</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="X9" s="6">
         <v>2</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="6">
         <v>2</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH9" s="6">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>35</v>
@@ -2408,200 +2406,200 @@
         <v>25569.04210648148</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X10" s="6">
         <v>3</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="AE10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF10" s="6">
         <v>4</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH10" s="6">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="5">
+        <v>25569.042071759261</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="5">
-        <v>25569.04207175926</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X11" s="6">
         <v>2</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="AF11" s="6">
         <v>3</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH11" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
@@ -2610,468 +2608,468 @@
         <v>25569.042175925926</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X12" s="6">
         <v>4</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF12" s="6">
         <v>3</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5">
         <v>25569.042152777776</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X13" s="6">
         <v>5</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF13" s="6">
         <v>4</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AH13" s="6">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="5">
-        <v>25569.04207175926</v>
+        <v>25569.042071759261</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X14" s="6">
         <v>3</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AF14" s="6">
         <v>3</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH14" s="6">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5">
+        <v>25569.042071759261</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="5">
-        <v>25569.04207175926</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="6">
         <v>5</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF15" s="6">
         <v>5</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AH15" s="6">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="5">
         <v>25569.042175925926</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -3089,333 +3087,333 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X17" s="6">
         <v>5</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="AF17" s="6">
         <v>5</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH17" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5">
         <v>25569.042083333334</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X18" s="6">
         <v>5</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE18" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="AF18" s="6">
         <v>3</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH18" s="6">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="5">
-        <v>25569.04207175926</v>
+        <v>25569.042071759261</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X19" s="6">
         <v>4</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF19" s="6">
         <v>4</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH19" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="5">
-        <v>25569.04204861111</v>
+        <v>25569.042048611111</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -3424,538 +3422,538 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X20" s="6">
         <v>3</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AB20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="AE20" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF20" s="6">
         <v>2</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH20" s="6">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="5">
+        <v>25569.042071759261</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="L21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C21" s="5">
-        <v>25569.04207175926</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="X21" s="6">
         <v>5</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF21" s="6">
         <v>4</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH21" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5">
-        <v>25569.04207175926</v>
+        <v>25569.042071759261</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X22" s="6">
         <v>3</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF22" s="6">
         <v>3</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH22" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5">
         <v>25569.042175925926</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X23" s="6">
         <v>2</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD23" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AE23" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF23" s="6">
         <v>3</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AH23" s="6">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X24" s="6">
         <v>5</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="AF24" s="6"/>
       <c r="AG24" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AH24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" s="5">
         <v>25569.042175925926</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -3973,314 +3971,314 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="X26" s="6">
         <v>3</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD26" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="6">
         <v>3</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH26" s="6">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27" s="5">
         <v>25569.042118055557</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X27" s="6">
         <v>4</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AC27" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF27" s="6">
         <v>3</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AH27" s="6">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="5">
         <v>25569.042118055557</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X28" s="6">
         <v>5</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF28" s="6">
         <v>4</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH28" s="6">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C29" s="5">
         <v>25569.042141203703</v>
@@ -4319,191 +4317,191 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="5">
         <v>25569.042094907407</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X30" s="6">
         <v>4</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF30" s="6">
         <v>3</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH30" s="6">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" s="5">
         <v>25569.042164351853</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X31" s="6">
         <v>3</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
@@ -4513,21 +4511,21 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="5">
+        <v>25569.042187499999</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" s="5">
-        <v>25569.0421875</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4536,58 +4534,58 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X32" s="6">
         <v>2</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AD32" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="AE32" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF32" s="6">
         <v>1</v>
@@ -4597,331 +4595,331 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="5">
         <v>25569.042141203703</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X33" s="6">
         <v>4</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC33" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AD33" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF33" s="6">
         <v>4</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH33" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" s="5">
         <v>25569.042141203703</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X34" s="6">
         <v>4</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF34" s="6">
         <v>4</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AH34" s="6">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C35" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X35" s="6">
         <v>4</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF35" s="6">
         <v>3</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C36" s="5">
         <v>25569.042083333334</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4930,28 +4928,28 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -4969,125 +4967,125 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X37" s="6">
         <v>4</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB37" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE37" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD37" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="AF37" s="6">
         <v>4</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH37" s="6">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="5">
         <v>25569.042164351853</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -5096,124 +5094,124 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X38" s="6">
         <v>3</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF38" s="6">
         <v>3</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AH38" s="6">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -5226,10 +5224,10 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
@@ -5239,214 +5237,214 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C40" s="5">
         <v>25569.04210648148</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X40" s="6">
         <v>3</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF40" s="6">
         <v>2</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH40" s="6">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C41" s="5">
         <v>25569.042083333334</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X41" s="6">
         <v>4</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF41" s="6">
         <v>4</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH41" s="6">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C42" s="5">
         <v>25569.042094907407</v>
@@ -5485,12 +5483,12 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="5">
         <v>25569.042083333334</v>
@@ -5529,15 +5527,15 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5573,21 +5571,21 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C45" s="5">
         <v>25569.042025462964</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5621,21 +5619,21 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C46" s="5">
         <v>25569.042094907407</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5644,73 +5642,73 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X46" s="6">
         <v>2</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF46" s="6">
         <v>3</v>
       </c>
       <c r="AG46" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AH46" s="6">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C47" s="5">
         <v>25569.04212962963</v>
@@ -5749,69 +5747,69 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -5829,365 +5827,365 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C49" s="5">
         <v>25569.042118055557</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X49" s="6">
         <v>4</v>
       </c>
       <c r="Y49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF49" s="6">
         <v>4</v>
       </c>
       <c r="AG49" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH49" s="6">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="5">
         <v>25569.042094907407</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X50" s="6">
         <v>4</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF50" s="6">
         <v>4</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH50" s="6">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C51" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X51" s="6">
         <v>3</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB51" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF51" s="6">
         <v>3</v>
       </c>
       <c r="AG51" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH51" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C52" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
@@ -6205,21 +6203,21 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C53" s="5">
         <v>25569.042152777776</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -6253,85 +6251,85 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" s="5">
         <v>25569.042175925926</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X54" s="6">
         <v>4</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
@@ -6339,15 +6337,15 @@
         <v>3</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH54" s="6">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>35</v>
@@ -6356,186 +6354,186 @@
         <v>25569.042118055557</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X55" s="6">
         <v>4</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB55" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF55" s="6">
         <v>4</v>
       </c>
       <c r="AG55" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH55" s="6">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C56" s="5">
         <v>25569.042141203703</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X56" s="6">
         <v>5</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB56" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
@@ -6543,18 +6541,18 @@
         <v>5</v>
       </c>
       <c r="AG56" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AH56" s="6">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C57" s="5">
         <v>25569.042175925926</v>
@@ -6593,229 +6591,229 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C58" s="5">
         <v>25569.042164351853</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X58" s="6">
         <v>3</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB58" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD58" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF58" s="6">
         <v>4</v>
       </c>
       <c r="AG58" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH58" s="6">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C59" s="5">
         <v>25569.042037037038</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X59" s="6">
         <v>4</v>
       </c>
       <c r="Y59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AA59" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB59" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF59" s="6">
         <v>4</v>
       </c>
       <c r="AG59" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH59" s="6">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C60" s="5">
         <v>25569.042094907407</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -6824,506 +6822,506 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X60" s="6">
         <v>2</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD60" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF60" s="6">
         <v>3</v>
       </c>
       <c r="AG60" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH60" s="6">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="5">
         <v>25569.042118055557</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X61" s="6">
         <v>3</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD61" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF61" s="6">
         <v>4</v>
       </c>
       <c r="AG61" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AH61" s="6">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C62" s="5">
         <v>25569.042060185184</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X62" s="6">
         <v>3</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC62" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="AD62" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF62" s="6">
         <v>3</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AH62" s="6">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="5">
         <v>25569.042037037038</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R63" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V63" s="4" t="s">
+      <c r="W63" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="W63" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="X63" s="6">
         <v>3</v>
       </c>
       <c r="Y63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD63" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF63" s="6">
         <v>4</v>
       </c>
       <c r="AG63" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH63" s="6">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C64" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V64" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W64" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X64" s="6">
         <v>5</v>
       </c>
       <c r="Y64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB64" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD64" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF64" s="6">
         <v>3</v>
       </c>
       <c r="AG64" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH64" s="6">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="5">
         <v>25569.042164351853</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -7332,194 +7330,194 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V65" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X65" s="6">
         <v>3</v>
       </c>
       <c r="Y65" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB65" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC65" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD65" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF65" s="6">
         <v>4</v>
       </c>
       <c r="AG65" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH65" s="6">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="5">
         <v>25569.042060185184</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X66" s="6">
         <v>5</v>
       </c>
       <c r="Y66" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC66" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AD66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF66" s="6">
         <v>3</v>
       </c>
       <c r="AG66" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AH66" s="6">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -7528,721 +7526,721 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V67" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X67" s="6">
         <v>4</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AC67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD67" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF67" s="6">
         <v>2</v>
       </c>
       <c r="AG67" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AH67" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" s="5">
         <v>25569.042060185184</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T68" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W68" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="X68" s="6">
         <v>5</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC68" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AD68" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF68" s="6">
         <v>4</v>
       </c>
       <c r="AG68" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH68" s="6">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C69" s="5">
         <v>25569.042164351853</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V69" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W69" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X69" s="6">
         <v>2</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD69" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="AE69" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF69" s="6">
         <v>3</v>
       </c>
       <c r="AG69" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH69" s="6">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C70" s="5">
         <v>25569.04212962963</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X70" s="6">
         <v>3</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AA70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC70" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD70" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="AE70" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF70" s="6">
         <v>4</v>
       </c>
       <c r="AG70" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH70" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C71" s="5">
         <v>25569.042060185184</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W71" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X71" s="6">
         <v>5</v>
       </c>
       <c r="Y71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AA71" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC71" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC71" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AD71" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AE71" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF71" s="6">
         <v>3</v>
       </c>
       <c r="AG71" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AH71" s="6">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C72" s="5">
-        <v>25569.04207175926</v>
+        <v>25569.042071759261</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T72" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="W72" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X72" s="6">
         <v>5</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC72" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD72" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE72" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF72" s="6">
         <v>5</v>
       </c>
       <c r="AG72" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH72" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C73" s="5">
         <v>25569.04210648148</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W73" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W73" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="X73" s="6">
         <v>5</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA73" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC73" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD73" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF73" s="6">
         <v>4</v>
       </c>
       <c r="AG73" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH73" s="6">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C74" s="5">
-        <v>25569.0421875</v>
+        <v>25569.042187499999</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -8265,21 +8263,21 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="5">
         <v>25569.042060185184</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -8288,28 +8286,28 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
